--- a/KatalonData/MultibillTestData/MultibillCCData.xlsx
+++ b/KatalonData/MultibillTestData/MultibillCCData.xlsx
@@ -1,23 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\MultibillTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A25AA97-07BA-4555-888B-1420ACF0EF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5EAF4068-DC84-4D7E-881F-E96ED04E421F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="9" firstSheet="7" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="CCData" sheetId="1" r:id="rId1"/>
+    <sheet name="CCData" r:id="rId1" sheetId="1"/>
+    <sheet name="VerifySearchResult" r:id="rId2" sheetId="2"/>
+    <sheet name="VerifyAmountTextBoxEditable" r:id="rId3" sheetId="3"/>
+    <sheet name="VerifyNoModifyAmountandRedacted" r:id="rId4" sheetId="4"/>
+    <sheet name="VerifyALTIDRedacted" r:id="rId5" sheetId="5"/>
+    <sheet name="VerifyALTIDNotRedacted" r:id="rId6" sheetId="6"/>
+    <sheet name="VerifyMultipleBillFileAtSearch" r:id="rId7" sheetId="7"/>
+    <sheet name="VerifyStaticTextOnSearch" r:id="rId8" sheetId="8"/>
+    <sheet name="Verify2Pages" r:id="rId9" sheetId="9"/>
+    <sheet name="VerifyErroron2CharSearch" r:id="rId10" sheetId="10"/>
+    <sheet name="VerifyCANSearch" r:id="rId11" sheetId="11"/>
+    <sheet name="VerifyStreetAddressSearch" r:id="rId12" sheetId="12"/>
+    <sheet name="VerifyStaticTextOnViewCart" r:id="rId13" sheetId="13"/>
+    <sheet name="VerifyLookup1Search" r:id="rId14" sheetId="14"/>
+    <sheet name="VerifyUDF3Saerch" r:id="rId15" sheetId="15"/>
+    <sheet name="VerifyRemoveCartContent" r:id="rId16" sheetId="16"/>
+    <sheet name="VerifyDataOnCartContent" r:id="rId17" sheetId="17"/>
+    <sheet name="VerifyPaymentEntryPageCC" r:id="rId18" sheetId="18"/>
+    <sheet name="VerifyPaymentEntryPagePC" r:id="rId19" sheetId="19"/>
+    <sheet name="VerifyPaymentEntryPageCorp" r:id="rId20" sheetId="20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="225">
   <si>
     <t>Result</t>
   </si>
@@ -166,19 +185,591 @@
   </si>
   <si>
     <t>Smith Pamela</t>
+  </si>
+  <si>
+    <t>virginia sigmon</t>
+  </si>
+  <si>
+    <t>PayerName</t>
+  </si>
+  <si>
+    <t>PayerAddress</t>
+  </si>
+  <si>
+    <t>DueDate</t>
+  </si>
+  <si>
+    <t>238 10TH AVE NW</t>
+  </si>
+  <si>
+    <t>684826</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>SIGMON, VIRGINIA</t>
+  </si>
+  <si>
+    <t>Dec 31, 2021</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>$*.51</t>
+  </si>
+  <si>
+    <t>Thu Mar 06 17:34:33 IST 2025</t>
+  </si>
+  <si>
+    <t>virginia</t>
+  </si>
+  <si>
+    <t>ALAMILLA MEJIA, VIRGINIA</t>
+  </si>
+  <si>
+    <t>SHUFORD, VIRGINIA</t>
+  </si>
+  <si>
+    <t>3307 STARTOWN RD</t>
+  </si>
+  <si>
+    <t>2296 GEORGE ST</t>
+  </si>
+  <si>
+    <t>VT1</t>
+  </si>
+  <si>
+    <t>VT2</t>
+  </si>
+  <si>
+    <t>VT3</t>
+  </si>
+  <si>
+    <t>VT4</t>
+  </si>
+  <si>
+    <t>VT5</t>
+  </si>
+  <si>
+    <t>VT6</t>
+  </si>
+  <si>
+    <t>VT7</t>
+  </si>
+  <si>
+    <t>VT8</t>
+  </si>
+  <si>
+    <t>This system allows you to search for, select, and pay multiple invoices. Please call 516-931-0184, Monday thru Friday, 8am-4pm if you need further assistance.</t>
+  </si>
+  <si>
+    <t>In order to lookup your invoice, simply enter your name, street address, online bill number or account number (do not add dashes) and click the Search button.</t>
+  </si>
+  <si>
+    <t>Add to cart</t>
+  </si>
+  <si>
+    <t>Remove from cart</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>The payment amount for each item in the cart can be modified by entering the desired value in the Amount Due below.</t>
+  </si>
+  <si>
+    <t>Hicksville Water District - Residential Payments</t>
+  </si>
+  <si>
+    <t>VT9</t>
+  </si>
+  <si>
+    <t>Payments secured and processed by Govolution - Velocity Payment System</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>684958</t>
+  </si>
+  <si>
+    <t>THOMPSON, WILLIE</t>
+  </si>
+  <si>
+    <t>3903 GRANGE RD</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>Virginia SIGMON</t>
+  </si>
+  <si>
+    <t>68495820072007</t>
+  </si>
+  <si>
+    <t>Smi</t>
+  </si>
+  <si>
+    <t>xch</t>
+  </si>
+  <si>
+    <t>yhj</t>
+  </si>
+  <si>
+    <t>1991 MAZD PICKUP Truck</t>
+  </si>
+  <si>
+    <t>Virginia Sigmon</t>
+  </si>
+  <si>
+    <t>komal</t>
+  </si>
+  <si>
+    <t>Kom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGMON, VIRGINIA </t>
+  </si>
+  <si>
+    <t>VPayerName1</t>
+  </si>
+  <si>
+    <t>VPayerAddress1</t>
+  </si>
+  <si>
+    <t>VAmount1</t>
+  </si>
+  <si>
+    <t>VAccountNumber1</t>
+  </si>
+  <si>
+    <t>VPayerName2</t>
+  </si>
+  <si>
+    <t>VPayerAddress2</t>
+  </si>
+  <si>
+    <t>VAmount2</t>
+  </si>
+  <si>
+    <t>VAccountNumber2</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 14:53:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 14:57:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 14:58:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:01:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:02:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:03:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:04:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:44:51 IST 2025</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:54:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:54:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:54:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:54:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:56:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:56:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:57:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:58:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:58:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:58:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 16:36:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 16:36:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 15:13:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 15:21:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 15:33:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 15:34:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 15:35:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 17:59:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 18:45:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 18:47:21 IST 2025</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Mar 25 22:39:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 22:39:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 22:39:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 22:39:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 22:40:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 22:41:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 22:41:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 22:41:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 22:42:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 22:42:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Mar 25 22:44:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:46:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:46:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:46:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:47:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:47:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:47:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:47:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:47:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:48:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:48:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:49:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:49:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:50:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:50:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:50:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:50:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:51:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:51:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 14:51:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 17:17:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 17:17:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 18:17:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 18:20:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 18:22:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 18:49:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 18:49:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 14:48:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 14:49:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 14:55:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 14:55:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 14:55:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 14:56:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 15:00:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 15:00:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 15:10:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 15:11:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 15:21:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 15:21:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 15:55:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 15:56:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 16:00:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 16:01:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 16:59:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 16:59:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 17:01:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 17:02:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 17:02:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 17:09:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 17:09:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 17:11:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 17:11:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 17:54:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 17:54:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:02:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:02:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:03:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:03:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:03:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:03:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:03:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:04:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:04:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:05:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:05:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:05:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:06:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:07:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:07:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:07:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:07:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:07:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 02 15:08:11 IST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF404041"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF404041"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF404041"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,7 +780,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -212,24 +803,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -246,10 +891,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -284,7 +929,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -319,7 +964,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -413,21 +1058,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -444,7 +1089,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -496,176 +1141,1863 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BF27D-9E5B-43D3-A8C6-55BD0B2E602C}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D7CF63-52CE-45A5-AAAD-49E5406A5D05}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.1796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="43.5" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="5">
+        <v>13.03</v>
+      </c>
+      <c r="J2" s="14">
+        <v>684958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <v>698</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176BCD28-A901-4577-AC2B-4D8F84F5F4AB}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="43.5" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="5">
+        <v>13.03</v>
+      </c>
+      <c r="J2" s="14">
+        <v>684958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAB8D87-1612-4A54-9789-20EBA3899496}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C795593-D462-4484-9AA4-88FCDAFE3571}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="43.5" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="5">
+        <v>13.03</v>
+      </c>
+      <c r="J2" s="14">
+        <v>684958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>98</v>
+      </c>
+      <c r="J3">
+        <v>789654</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922E2DF4-99DD-461B-8823-21A4F73EC265}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="58" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="5">
+        <v>13.03</v>
+      </c>
+      <c r="J2" s="14">
+        <v>684958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2F5DCD-3C8F-4880-BB50-8902A2B8FCEA}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.6328125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97872C09-914A-48DE-8F4E-FDB918E9AE67}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.6328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.36328125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC5830D-66D0-4550-8001-686B3F1A766F}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA84A4D-C922-4030-9CED-DABBEF75479D}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A683BE9-6249-421D-92CB-328DFD4DF946}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.90625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.6328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="9.1796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="8">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12B0A87-644D-4675-93A2-DC39D9AADE64}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051F4528-1B41-4D78-BCA4-48AC174370CB}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320D1D33-46D9-47A1-8D21-2F325C6EB804}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869053C2-BECE-477A-A52F-F9A660E766F1}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB854B13-0493-48E8-AA80-CD6F2F5005DA}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36947155-855C-418A-BB46-98E870DFBFDC}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.6328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.90625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.90625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.7265625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="29" r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="5">
+        <v>30.14</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1397766</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>29.41</v>
+      </c>
+      <c r="R2" s="1">
+        <v>966323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E46036D-3E0A-4CA8-9437-AC70B02E484B}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row ht="145.5" r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0777A2-8D17-46EC-97AB-260FCB0FA79E}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.6328125" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row ht="29" r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
-  </headerFooter>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/MultibillTestData/MultibillCCData.xlsx
+++ b/KatalonData/MultibillTestData/MultibillCCData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\MultibillTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5EAF4068-DC84-4D7E-881F-E96ED04E421F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{09D6649D-6008-476D-973A-2300A5A930F3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="7" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="3" firstSheet="2" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="CCData" r:id="rId1" sheetId="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="301">
   <si>
     <t>Result</t>
   </si>
@@ -223,502 +223,730 @@
     <t>Fail</t>
   </si>
   <si>
+    <t>Thu Mar 06 17:34:33 IST 2025</t>
+  </si>
+  <si>
+    <t>virginia</t>
+  </si>
+  <si>
+    <t>ALAMILLA MEJIA, VIRGINIA</t>
+  </si>
+  <si>
+    <t>SHUFORD, VIRGINIA</t>
+  </si>
+  <si>
+    <t>3307 STARTOWN RD</t>
+  </si>
+  <si>
+    <t>2296 GEORGE ST</t>
+  </si>
+  <si>
+    <t>VT1</t>
+  </si>
+  <si>
+    <t>VT2</t>
+  </si>
+  <si>
+    <t>VT3</t>
+  </si>
+  <si>
+    <t>VT4</t>
+  </si>
+  <si>
+    <t>VT5</t>
+  </si>
+  <si>
+    <t>VT6</t>
+  </si>
+  <si>
+    <t>VT7</t>
+  </si>
+  <si>
+    <t>VT8</t>
+  </si>
+  <si>
+    <t>This system allows you to search for, select, and pay multiple invoices. Please call 516-931-0184, Monday thru Friday, 8am-4pm if you need further assistance.</t>
+  </si>
+  <si>
+    <t>In order to lookup your invoice, simply enter your name, street address, online bill number or account number (do not add dashes) and click the Search button.</t>
+  </si>
+  <si>
+    <t>Add to cart</t>
+  </si>
+  <si>
+    <t>Remove from cart</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>The payment amount for each item in the cart can be modified by entering the desired value in the Amount Due below.</t>
+  </si>
+  <si>
+    <t>Hicksville Water District - Residential Payments</t>
+  </si>
+  <si>
+    <t>VT9</t>
+  </si>
+  <si>
+    <t>Payments secured and processed by Govolution - Velocity Payment System</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>684958</t>
+  </si>
+  <si>
+    <t>THOMPSON, WILLIE</t>
+  </si>
+  <si>
+    <t>3903 GRANGE RD</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>Virginia SIGMON</t>
+  </si>
+  <si>
+    <t>68495820072007</t>
+  </si>
+  <si>
+    <t>Smi</t>
+  </si>
+  <si>
+    <t>xch</t>
+  </si>
+  <si>
+    <t>yhj</t>
+  </si>
+  <si>
+    <t>1991 MAZD PICKUP Truck</t>
+  </si>
+  <si>
+    <t>Virginia Sigmon</t>
+  </si>
+  <si>
+    <t>komal</t>
+  </si>
+  <si>
+    <t>Kom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGMON, VIRGINIA </t>
+  </si>
+  <si>
+    <t>VPayerName1</t>
+  </si>
+  <si>
+    <t>VPayerAddress1</t>
+  </si>
+  <si>
+    <t>VAmount1</t>
+  </si>
+  <si>
+    <t>VAccountNumber1</t>
+  </si>
+  <si>
+    <t>VPayerName2</t>
+  </si>
+  <si>
+    <t>VPayerAddress2</t>
+  </si>
+  <si>
+    <t>VAmount2</t>
+  </si>
+  <si>
+    <t>VAccountNumber2</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 14:53:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 14:57:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 14:58:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:01:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:02:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:03:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:04:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:44:51 IST 2025</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 16:36:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 16:36:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:43:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:43:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:44:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:45:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:46:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:46:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:47:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:50:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:51:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:52:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:53:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:54:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:55:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:55:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 17 22:56:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:11:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:13:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:19:28 IST 2025</t>
+  </si>
+  <si>
     <t>$*.51</t>
   </si>
   <si>
-    <t>Thu Mar 06 17:34:33 IST 2025</t>
-  </si>
-  <si>
-    <t>virginia</t>
-  </si>
-  <si>
-    <t>ALAMILLA MEJIA, VIRGINIA</t>
-  </si>
-  <si>
-    <t>SHUFORD, VIRGINIA</t>
-  </si>
-  <si>
-    <t>3307 STARTOWN RD</t>
-  </si>
-  <si>
-    <t>2296 GEORGE ST</t>
-  </si>
-  <si>
-    <t>VT1</t>
-  </si>
-  <si>
-    <t>VT2</t>
-  </si>
-  <si>
-    <t>VT3</t>
-  </si>
-  <si>
-    <t>VT4</t>
-  </si>
-  <si>
-    <t>VT5</t>
-  </si>
-  <si>
-    <t>VT6</t>
-  </si>
-  <si>
-    <t>VT7</t>
-  </si>
-  <si>
-    <t>VT8</t>
-  </si>
-  <si>
-    <t>This system allows you to search for, select, and pay multiple invoices. Please call 516-931-0184, Monday thru Friday, 8am-4pm if you need further assistance.</t>
-  </si>
-  <si>
-    <t>In order to lookup your invoice, simply enter your name, street address, online bill number or account number (do not add dashes) and click the Search button.</t>
-  </si>
-  <si>
-    <t>Add to cart</t>
-  </si>
-  <si>
-    <t>Remove from cart</t>
-  </si>
-  <si>
-    <t>Scheduled</t>
-  </si>
-  <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>The payment amount for each item in the cart can be modified by entering the desired value in the Amount Due below.</t>
-  </si>
-  <si>
-    <t>Hicksville Water District - Residential Payments</t>
-  </si>
-  <si>
-    <t>VT9</t>
-  </si>
-  <si>
-    <t>Payments secured and processed by Govolution - Velocity Payment System</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>smith</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>vi</t>
-  </si>
-  <si>
-    <t>sm</t>
-  </si>
-  <si>
-    <t>684958</t>
-  </si>
-  <si>
-    <t>THOMPSON, WILLIE</t>
-  </si>
-  <si>
-    <t>3903 GRANGE RD</t>
-  </si>
-  <si>
-    <t>KK</t>
-  </si>
-  <si>
-    <t>LL</t>
-  </si>
-  <si>
-    <t>Virginia SIGMON</t>
-  </si>
-  <si>
-    <t>68495820072007</t>
-  </si>
-  <si>
-    <t>Smi</t>
-  </si>
-  <si>
-    <t>xch</t>
-  </si>
-  <si>
-    <t>yhj</t>
-  </si>
-  <si>
-    <t>1991 MAZD PICKUP Truck</t>
-  </si>
-  <si>
-    <t>Virginia Sigmon</t>
-  </si>
-  <si>
-    <t>komal</t>
-  </si>
-  <si>
-    <t>Kom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGMON, VIRGINIA </t>
-  </si>
-  <si>
-    <t>VPayerName1</t>
-  </si>
-  <si>
-    <t>VPayerAddress1</t>
-  </si>
-  <si>
-    <t>VAmount1</t>
-  </si>
-  <si>
-    <t>VAccountNumber1</t>
-  </si>
-  <si>
-    <t>VPayerName2</t>
-  </si>
-  <si>
-    <t>VPayerAddress2</t>
-  </si>
-  <si>
-    <t>VAmount2</t>
-  </si>
-  <si>
-    <t>VAccountNumber2</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 14:53:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 14:57:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 14:58:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:01:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:02:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:03:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:04:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:44:51 IST 2025</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:54:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:54:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:54:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:54:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:56:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:56:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:57:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:58:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:58:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:58:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 16:36:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 16:36:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 15:13:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 15:21:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 15:33:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 15:34:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 15:35:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 17:59:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 18:45:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 18:47:21 IST 2025</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Tue Mar 25 22:39:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 22:39:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 22:39:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 22:39:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 22:40:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 22:41:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 22:41:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 22:41:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 22:42:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 22:42:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Mar 25 22:44:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:46:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:46:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:46:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:47:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:47:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:47:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:47:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:47:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:48:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:48:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:49:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:49:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:50:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:50:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:50:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:50:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:51:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:51:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 14:51:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 17:17:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 17:17:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 18:17:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 18:20:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 18:22:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 18:49:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 28 18:49:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 14:48:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 14:49:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 14:55:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 14:55:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 14:55:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 14:56:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 15:00:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 15:00:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 15:10:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 15:11:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 15:21:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 15:21:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 15:55:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 15:56:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 16:00:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 16:01:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 16:59:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 16:59:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 17:01:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 17:02:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 17:02:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 17:09:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 17:09:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 17:11:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 17:11:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 17:54:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue Apr 01 17:54:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:02:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:02:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:03:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:03:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:03:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:03:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:03:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:04:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:04:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:05:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:05:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:05:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:06:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:07:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:07:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:07:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:07:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:07:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 02 15:08:11 IST 2025</t>
+    <t>Fri Apr 18 16:22:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:22:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:23:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:24:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:24:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:24:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:25:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:26:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:26:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:27:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:30:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:30:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:32:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:33:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:34:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:34:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:35:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:36:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 18 16:36:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 13:48:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 13:49:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 13:49:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 13:50:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 13:50:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 13:51:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 13:52:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 13:52:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 13:53:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 13:56:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 13:57:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 13:59:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 14:00:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 14:00:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 14:01:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 14:02:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 14:02:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Apr 21 14:03:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:15:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:15:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:15:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:16:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:16:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:17:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:17:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:18:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:18:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:21:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:22:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:24:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:25:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:25:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:26:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:27:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:27:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:28:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 24 20:44:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:11:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:12:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:12:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:12:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:12:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:13:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:13:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:14:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:14:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:17:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:17:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:19:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:20:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:21:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:21:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:22:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:22:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:23:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:23:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:23:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:24:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:24:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:25:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:26:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:28:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:29:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:31:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:32:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:32:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:33:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:34:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:34:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 21:35:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 14:27:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 14:28:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 14:32:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 14:33:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 14:34:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 14:35:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 14:39:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 14:40:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 14:46:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 14:52:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 15:02:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 15:04:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 15:05:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 15:08:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 15:10:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue May 06 15:11:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:34:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:35:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:36:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:38:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:38:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:39:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:39:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:43:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:43:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:44:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:44:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:44:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:45:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:46:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:46:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:47:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:47:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 09 11:48:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 10:50:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 10:51:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 10:52:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 10:54:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 10:54:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 10:55:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 10:55:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 10:59:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 10:59:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 11:00:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 11:00:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 11:00:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 11:01:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 11:01:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 11:02:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 11:03:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 11:03:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri May 16 11:04:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:20:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:20:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:21:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:21:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:21:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:22:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:22:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:23:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:24:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:26:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:27:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:29:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:30:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:30:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:31:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:32:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:32:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:33:19 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -831,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
@@ -866,9 +1094,6 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1319,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BF27D-9E5B-43D3-A8C6-55BD0B2E602C}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -1341,21 +1566,21 @@
       <c r="E1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1363,21 +1588,21 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1436,20 +1661,20 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>55</v>
@@ -1466,19 +1691,19 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3">
         <v>698</v>
       </c>
       <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
         <v>92</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1542,20 +1767,20 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>55</v>
@@ -1604,14 +1829,14 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1619,13 +1844,13 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1680,20 +1905,20 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>55</v>
@@ -1710,19 +1935,19 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
         <v>96</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>98</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1786,20 +2011,20 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>55</v>
@@ -1868,7 +2093,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1952,14 +2177,14 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>54</v>
@@ -1982,10 +2207,10 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>46</v>
@@ -2043,14 +2268,14 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>54</v>
@@ -2073,10 +2298,10 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
         <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
@@ -2134,14 +2359,14 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>54</v>
@@ -2164,13 +2389,13 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2232,7 +2457,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2262,10 +2487,10 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>57</v>
@@ -2338,14 +2563,14 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>54</v>
@@ -2368,10 +2593,10 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
@@ -2429,7 +2654,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2472,7 +2697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320D1D33-46D9-47A1-8D21-2F325C6EB804}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -2515,7 +2740,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2534,7 +2759,7 @@
         <v>55</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>52</v>
@@ -2592,7 +2817,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2669,7 +2894,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2751,28 +2976,28 @@
         <v>53</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -2780,17 +3005,17 @@
         <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>51</v>
@@ -2805,10 +3030,10 @@
         <v>52</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2" s="5">
         <v>30.14</v>
@@ -2817,10 +3042,10 @@
         <v>1397766</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="5">
         <v>29.41</v>
@@ -2861,31 +3086,31 @@
         <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row ht="145.5" r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -2893,44 +3118,44 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="O2" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2973,14 +3198,14 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2988,13 +3213,13 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/MultibillTestData/MultibillCCData.xlsx
+++ b/KatalonData/MultibillTestData/MultibillCCData.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="226">
   <si>
     <t>Result</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>Wed Apr 02 15:08:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 08 15:12:35 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -2973,7 +2976,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/MultibillTestData/MultibillCCData.xlsx
+++ b/KatalonData/MultibillTestData/MultibillCCData.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="316">
   <si>
     <t>Result</t>
   </si>
@@ -947,6 +947,51 @@
   </si>
   <si>
     <t>Thu May 22 11:33:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:48:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:50:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:50:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:51:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:54:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:55:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:55:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:56:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:56:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:56:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:57:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:58:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:59:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 11 23:59:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Jul 12 00:00:32 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1812,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1829,7 +1874,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1844,7 +1889,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1905,7 +1950,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2011,7 +2056,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2090,10 +2135,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2265,10 +2310,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2356,10 +2401,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2457,7 +2502,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2560,10 +2605,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2651,10 +2696,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3118,7 +3163,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3195,10 +3240,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/MultibillTestData/MultibillCCData.xlsx
+++ b/KatalonData/MultibillTestData/MultibillCCData.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="386">
   <si>
     <t>Result</t>
   </si>
@@ -992,6 +992,216 @@
   </si>
   <si>
     <t>Sat Jul 12 00:00:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 20:48:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 20:49:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 20:51:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 20:52:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 20:52:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 20:53:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 20:54:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 20:58:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 20:59:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:01:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:02:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:02:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:03:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:04:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:07:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:08:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:08:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:09:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:09:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:09:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:10:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:11:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:12:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:12:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:13:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:41:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:45:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 21:53:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:46:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:47:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:48:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:49:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:50:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:51:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:51:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:52:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:55:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:56:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:57:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:00:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:01:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:02:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:02:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:03:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:04:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:04:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:23:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:29:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:35:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:37:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:40:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:44:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:08:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:09:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:10:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:11:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:12:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:13:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:13:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:14:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:17:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:18:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:19:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:22:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:23:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:24:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:25:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:26:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:26:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:27:13 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1916,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1812,7 +2022,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1874,7 +2084,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1889,7 +2099,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1950,7 +2160,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2056,7 +2266,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2135,10 +2345,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2222,7 +2432,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2310,10 +2520,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2401,10 +2611,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2502,7 +2712,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2605,10 +2815,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2699,7 +2909,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2862,7 +3072,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2939,7 +3149,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3163,7 +3373,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3243,7 +3453,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/MultibillTestData/MultibillCCData.xlsx
+++ b/KatalonData/MultibillTestData/MultibillCCData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\MultibillTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\MultibillTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{09D6649D-6008-476D-973A-2300A5A930F3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F65F1314-27BB-4A1C-B19F-23F284CF3EA3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="2" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="19" firstSheet="18" windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="CCData" r:id="rId1" sheetId="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="161">
   <si>
     <t>Result</t>
   </si>
@@ -412,803 +412,130 @@
     <t>Fri Mar 21 16:36:40 IST 2025</t>
   </si>
   <si>
-    <t>Thu Apr 17 22:43:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:43:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:44:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:45:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:46:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:46:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:47:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:50:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:51:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:52:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:53:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:54:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:55:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:55:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 17 22:56:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:11:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:13:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:19:28 IST 2025</t>
-  </si>
-  <si>
     <t>$*.51</t>
   </si>
   <si>
+    <t>Thu May 22 11:21:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:08:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:09:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:10:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:11:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:12:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:13:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:13:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:14:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:18:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:19:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:22:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:23:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:24:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:25:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:26:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:26:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Sep 15 21:27:13 IST 2025</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Fri Apr 18 16:22:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:22:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:23:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:24:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:24:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:24:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:25:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:26:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:26:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:27:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:30:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:30:58 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:32:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:33:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:34:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:34:57 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:35:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:36:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 18 16:36:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 13:48:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 13:49:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 13:49:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 13:50:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 13:50:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 13:51:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 13:52:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 13:52:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 13:53:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 13:56:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 13:57:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 13:59:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 14:00:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 14:00:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 14:01:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 14:02:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 14:02:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Apr 21 14:03:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:15:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:15:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:15:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:16:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:16:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:17:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:17:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:18:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:18:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:21:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:22:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:24:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:25:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:25:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:26:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:27:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:27:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Apr 23 14:28:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Apr 24 20:44:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:11:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:12:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:12:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:12:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:12:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:13:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:13:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:14:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:14:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:17:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:17:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:19:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:20:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:21:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:21:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:22:21 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:22:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:23:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:23:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:23:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:24:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:24:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:25:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:26:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:28:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:29:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:31:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:32:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:32:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:33:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:34:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:34:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Apr 25 21:35:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 14:27:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 14:28:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 14:32:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 14:33:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 14:34:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 14:35:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 14:39:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 14:40:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 14:46:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 14:52:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 15:02:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 15:04:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 15:05:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 15:08:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 15:10:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Tue May 06 15:11:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:34:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:35:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:36:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:38:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:38:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:39:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:39:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:43:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:43:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:44:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:44:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:44:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:45:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:46:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:46:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:47:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:47:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 09 11:48:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 10:50:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 10:51:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 10:52:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 10:54:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 10:54:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 10:55:07 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 10:55:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 10:59:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 10:59:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 11:00:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 11:00:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 11:00:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 11:01:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 11:01:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 11:02:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 11:03:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 11:03:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri May 16 11:04:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:20:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:20:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:21:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:21:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:21:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:22:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:22:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:23:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:24:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:26:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:27:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:29:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:30:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:30:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:31:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:32:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:32:52 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:33:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:48:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:50:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:50:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:51:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:54:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:55:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:55:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:56:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:56:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:56:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:57:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:58:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:59:13 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 11 23:59:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Sat Jul 12 00:00:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 20:48:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 20:49:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 20:51:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 20:52:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 20:52:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 20:53:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 20:54:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 20:58:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 20:59:24 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:01:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:02:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:02:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:03:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:04:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:07:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:08:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:08:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:09:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:09:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:09:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:10:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:11:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:12:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:12:45 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:13:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:41:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:45:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 21:53:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 23:46:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 23:47:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 23:48:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 23:49:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 23:50:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 23:51:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 23:51:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 23:52:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 23:55:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 23:56:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 04 23:57:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 05 00:00:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 05 00:01:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 05 00:02:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 05 00:02:54 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 05 00:03:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 05 00:04:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 05 00:04:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 05 00:23:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 05 00:29:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 05 00:35:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 05 00:37:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 05 00:40:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 05 00:44:08 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:08:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:09:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:10:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:11:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:12:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:13:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:13:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:14:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:17:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:18:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:19:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:22:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:23:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:24:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:25:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:26:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:26:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:27:13 IST 2025</t>
+    <t>Wed Sep 17 23:49:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 17 23:50:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 17 23:52:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 17 23:53:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 17 23:54:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 17 23:54:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 17 23:55:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 17 23:56:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 17 23:59:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:00:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:02:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:04:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:05:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:06:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:07:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:08:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:08:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:09:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 19 20:16:44 IST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1348,7 +675,7 @@
     </xf>
     <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="170" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1870,7 +1197,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1916,7 +1243,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1931,8 +1258,8 @@
       <c r="G2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="5">
         <v>13.03</v>
@@ -1980,7 +1307,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2022,7 +1349,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2037,8 +1364,8 @@
       <c r="G2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="5">
         <v>13.03</v>
@@ -2084,7 +1411,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2099,7 +1426,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2118,7 +1445,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2160,7 +1487,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2175,8 +1502,8 @@
       <c r="G2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="5">
         <v>13.03</v>
@@ -2224,7 +1551,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2266,7 +1593,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2281,8 +1608,8 @@
       <c r="G2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="5">
         <v>13.03</v>
@@ -2301,7 +1628,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2348,7 +1675,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2363,8 +1690,8 @@
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="8">
         <v>16.510000000000002</v>
@@ -2383,7 +1710,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2432,7 +1759,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2447,8 +1774,8 @@
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="8">
         <v>16.510000000000002</v>
@@ -2481,7 +1808,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2523,7 +1850,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2538,8 +1865,8 @@
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="8">
         <v>16.510000000000002</v>
@@ -2572,7 +1899,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2614,7 +1941,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2629,8 +1956,8 @@
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="8">
         <v>16.510000000000002</v>
@@ -2663,7 +1990,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2712,7 +2039,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2727,8 +2054,8 @@
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="8">
         <v>16.510000000000002</v>
@@ -2775,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12B0A87-644D-4675-93A2-DC39D9AADE64}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2818,7 +2145,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2833,8 +2160,8 @@
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="8">
         <v>16.510000000000002</v>
@@ -2867,7 +2194,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2909,7 +2236,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2924,8 +2251,8 @@
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="8">
         <v>16.510000000000002</v>
@@ -2950,13 +2277,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320D1D33-46D9-47A1-8D21-2F325C6EB804}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+  </cols>
   <sheetData>
     <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
@@ -2995,7 +2325,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3010,14 +2340,19 @@
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H3" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3030,7 +2365,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3072,7 +2407,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3087,8 +2422,8 @@
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="8">
         <v>16.510000000000002</v>
@@ -3107,7 +2442,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3149,7 +2484,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3164,8 +2499,8 @@
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="8">
         <v>16.510000000000002</v>
@@ -3184,7 +2519,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3275,8 +2610,8 @@
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>55</v>
+      <c r="H2" s="15">
+        <v>44561</v>
       </c>
       <c r="I2" s="8">
         <v>16.510000000000002</v>
@@ -3373,7 +2708,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3453,7 +2788,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/MultibillTestData/MultibillCCData.xlsx
+++ b/KatalonData/MultibillTestData/MultibillCCData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\MultibillTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\MultibillTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{F65F1314-27BB-4A1C-B19F-23F284CF3EA3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{95CC317F-2C51-484B-85EA-34E60EBBBEA3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="19" firstSheet="18" windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="9" firstSheet="6" windowHeight="15675" windowWidth="28995" xWindow="14303" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-2010"/>
   </bookViews>
   <sheets>
     <sheet name="CCData" r:id="rId1" sheetId="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="143">
   <si>
     <t>Result</t>
   </si>
@@ -304,229 +304,175 @@
     <t>Virginia</t>
   </si>
   <si>
-    <t>vi</t>
+    <t>684958</t>
+  </si>
+  <si>
+    <t>THOMPSON, WILLIE</t>
+  </si>
+  <si>
+    <t>3903 GRANGE RD</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>Virginia SIGMON</t>
+  </si>
+  <si>
+    <t>68495820072007</t>
+  </si>
+  <si>
+    <t>Smi</t>
+  </si>
+  <si>
+    <t>xch</t>
+  </si>
+  <si>
+    <t>yhj</t>
+  </si>
+  <si>
+    <t>1991 MAZD PICKUP Truck</t>
+  </si>
+  <si>
+    <t>Virginia Sigmon</t>
+  </si>
+  <si>
+    <t>komal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGMON, VIRGINIA </t>
+  </si>
+  <si>
+    <t>VPayerName1</t>
+  </si>
+  <si>
+    <t>VPayerAddress1</t>
+  </si>
+  <si>
+    <t>VAmount1</t>
+  </si>
+  <si>
+    <t>VAccountNumber1</t>
+  </si>
+  <si>
+    <t>VPayerName2</t>
+  </si>
+  <si>
+    <t>VPayerAddress2</t>
+  </si>
+  <si>
+    <t>VAmount2</t>
+  </si>
+  <si>
+    <t>VAccountNumber2</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 14:53:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 14:57:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 14:58:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:01:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:02:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:03:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:04:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 15:44:51 IST 2025</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>$*.51</t>
+  </si>
+  <si>
+    <t>Thu May 22 11:21:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 17 23:53:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 17 23:54:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 17 23:54:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 17 23:55:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 17 23:56:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:00:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:02:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:04:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:05:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:06:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:07:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:08:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 18 00:08:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 18:16:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:08:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:28:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 19:41:09 EST 2025</t>
   </si>
   <si>
     <t>sm</t>
   </si>
   <si>
-    <t>684958</t>
-  </si>
-  <si>
-    <t>THOMPSON, WILLIE</t>
-  </si>
-  <si>
-    <t>3903 GRANGE RD</t>
-  </si>
-  <si>
-    <t>KK</t>
-  </si>
-  <si>
-    <t>LL</t>
-  </si>
-  <si>
-    <t>Virginia SIGMON</t>
-  </si>
-  <si>
-    <t>68495820072007</t>
-  </si>
-  <si>
-    <t>Smi</t>
-  </si>
-  <si>
-    <t>xch</t>
-  </si>
-  <si>
-    <t>yhj</t>
-  </si>
-  <si>
-    <t>1991 MAZD PICKUP Truck</t>
-  </si>
-  <si>
-    <t>Virginia Sigmon</t>
-  </si>
-  <si>
-    <t>komal</t>
-  </si>
-  <si>
-    <t>Kom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGMON, VIRGINIA </t>
-  </si>
-  <si>
-    <t>VPayerName1</t>
-  </si>
-  <si>
-    <t>VPayerAddress1</t>
-  </si>
-  <si>
-    <t>VAmount1</t>
-  </si>
-  <si>
-    <t>VAccountNumber1</t>
-  </si>
-  <si>
-    <t>VPayerName2</t>
-  </si>
-  <si>
-    <t>VPayerAddress2</t>
-  </si>
-  <si>
-    <t>VAmount2</t>
-  </si>
-  <si>
-    <t>VAccountNumber2</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 14:53:41 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 14:57:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 14:58:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:01:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:02:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:03:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:04:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 15:44:51 IST 2025</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 16:36:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Mar 21 16:36:40 IST 2025</t>
-  </si>
-  <si>
-    <t>$*.51</t>
-  </si>
-  <si>
-    <t>Thu May 22 11:21:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:08:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:09:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:10:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:11:43 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:12:28 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:13:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:13:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:14:26 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:18:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:19:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:22:29 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:23:35 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:24:37 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:25:18 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:26:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:26:42 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Sep 15 21:27:13 IST 2025</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Wed Sep 17 23:49:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 17 23:50:56 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 17 23:52:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 17 23:53:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 17 23:54:19 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 17 23:54:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 17 23:55:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 17 23:56:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 17 23:59:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 18 00:00:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 18 00:02:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 18 00:04:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 18 00:05:46 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 18 00:06:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 18 00:07:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 18 00:08:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 18 00:08:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 18 00:09:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Sep 19 20:16:44 IST 2025</t>
+    <t>Thu Nov 20 21:03:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:04:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:13:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:17:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:17:44 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -534,7 +480,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -675,7 +621,7 @@
     </xf>
     <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="170" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1124,15 +1070,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BF27D-9E5B-43D3-A8C6-55BD0B2E602C}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.453125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.08984375" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row ht="29" r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1151,40 +1101,12 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1243,20 +1165,20 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="H2" s="15">
         <v>44561</v>
@@ -1273,19 +1195,19 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3">
         <v>698</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1349,20 +1271,20 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="15">
         <v>44561</v>
@@ -1411,14 +1333,14 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1426,7 +1348,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1487,20 +1409,20 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="15">
         <v>44561</v>
@@ -1517,19 +1439,19 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
         <v>95</v>
-      </c>
-      <c r="F3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" t="s">
-        <v>97</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1593,20 +1515,20 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="15">
         <v>44561</v>
@@ -1675,7 +1597,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1759,14 +1681,14 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>54</v>
@@ -1789,10 +1711,10 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>46</v>
@@ -1850,14 +1772,14 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>54</v>
@@ -1880,10 +1802,10 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
@@ -1941,14 +1863,14 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>54</v>
@@ -1971,13 +1893,13 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2039,7 +1961,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2069,10 +1991,10 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>57</v>
@@ -2102,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12B0A87-644D-4675-93A2-DC39D9AADE64}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -2145,14 +2067,14 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>54</v>
@@ -2175,10 +2097,10 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
@@ -2198,6 +2120,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.90625" collapsed="true"/>
+  </cols>
   <sheetData>
     <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
@@ -2233,10 +2158,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2325,7 +2250,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2344,7 +2269,7 @@
         <v>44561</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>52</v>
@@ -2369,6 +2294,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.90625" collapsed="true"/>
+  </cols>
   <sheetData>
     <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
@@ -2404,10 +2332,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2442,10 +2370,22 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.90625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.6328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.26953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.08984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.54296875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+  </cols>
   <sheetData>
     <row ht="29" r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
@@ -2484,7 +2424,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2566,28 +2506,28 @@
         <v>53</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -2605,7 +2545,7 @@
         <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>51</v>
@@ -2708,7 +2648,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2788,7 +2728,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2803,10 +2743,10 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>85</v>

--- a/KatalonData/MultibillTestData/MultibillCCData.xlsx
+++ b/KatalonData/MultibillTestData/MultibillCCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\MultibillTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{95CC317F-2C51-484B-85EA-34E60EBBBEA3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2BC165B1-800F-460B-A2DC-993864F6B38A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="6" windowHeight="15675" windowWidth="28995" xWindow="14303" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-2010"/>
+    <workbookView activeTab="10" firstSheet="6" windowHeight="15675" windowWidth="28995" xWindow="14303" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-2010"/>
   </bookViews>
   <sheets>
     <sheet name="CCData" r:id="rId1" sheetId="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="158">
   <si>
     <t>Result</t>
   </si>
@@ -400,15 +400,6 @@
     <t>$*.51</t>
   </si>
   <si>
-    <t>Thu May 22 11:21:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 17 23:53:34 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Sep 17 23:54:19 IST 2025</t>
-  </si>
-  <si>
     <t>Wed Sep 17 23:54:51 IST 2025</t>
   </si>
   <si>
@@ -418,9 +409,6 @@
     <t>Wed Sep 17 23:56:17 IST 2025</t>
   </si>
   <si>
-    <t>Thu Sep 18 00:00:31 IST 2025</t>
-  </si>
-  <si>
     <t>Thu Sep 18 00:02:05 IST 2025</t>
   </si>
   <si>
@@ -433,18 +421,6 @@
     <t>Thu Sep 18 00:06:50 IST 2025</t>
   </si>
   <si>
-    <t>Thu Sep 18 00:07:33 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 18 00:08:17 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Sep 18 00:08:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 20 18:16:17 EST 2025</t>
-  </si>
-  <si>
     <t>Thu Nov 20 19:08:46 EST 2025</t>
   </si>
   <si>
@@ -457,22 +433,91 @@
     <t>sm</t>
   </si>
   <si>
+    <t>Thu Nov 20 21:03:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:04:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:13:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:17:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 20 21:17:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 21 13:46:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 21 19:53:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 21 20:20:19 EST 2025</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Thu Nov 20 21:03:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 20 21:04:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 20 21:13:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 20 21:17:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Nov 20 21:17:44 EST 2025</t>
+    <t>Mon Nov 24 14:32:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 14:36:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 14:37:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 14:40:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 14:42:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 14:44:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 14:47:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 14:52:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 15:00:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 15:02:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 15:14:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 15:18:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 15:23:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 16:00:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 16:27:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 16:30:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 16:35:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 16:40:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 16:40:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 24 16:42:59 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8BF27D-9E5B-43D3-A8C6-55BD0B2E602C}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1106,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1118,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D7CF63-52CE-45A5-AAAD-49E5406A5D05}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1162,10 +1207,10 @@
     </row>
     <row ht="43.5" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1271,7 +1316,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1333,7 +1378,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1348,7 +1393,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1409,7 +1454,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1515,7 +1560,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1594,10 +1639,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1681,7 +1726,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1769,10 +1814,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1860,10 +1905,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1961,7 +2006,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2064,10 +2109,10 @@
     </row>
     <row ht="29" r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2161,7 +2206,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2250,7 +2295,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2335,7 +2380,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2424,7 +2469,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2648,7 +2693,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2728,7 +2773,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/MultibillTestData/MultibillCCData.xlsx
+++ b/KatalonData/MultibillTestData/MultibillCCData.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="203">
   <si>
     <t>Result</t>
   </si>
@@ -527,6 +527,132 @@
   </si>
   <si>
     <t>Fri Sep 19 20:16:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:02:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:03:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:04:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:05:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:06:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:07:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:07:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:08:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:09:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:11:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:12:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:13:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:16:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:17:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:18:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:19:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 16:19:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 00:13:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 00:39:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 00:53:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 07 01:00:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Nov 08 16:07:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Nov 08 23:34:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Nov 08 23:43:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Nov 08 23:48:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Nov 08 23:51:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 00:01:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 01:03:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 01:19:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:18:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 01:31:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 02:07:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 14:53:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 14:56:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 15:03:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 15:13:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 21 16:29:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 21 16:32:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 21 16:37:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 21 19:45:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 21 19:59:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 21 20:02:55 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1369,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1349,7 +1475,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1487,7 +1613,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1593,7 +1719,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1675,7 +1801,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1759,7 +1885,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1850,7 +1976,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1941,7 +2067,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2039,7 +2165,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2145,7 +2271,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2236,7 +2362,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2325,7 +2451,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2407,7 +2533,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2484,7 +2610,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2708,7 +2834,7 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2788,7 +2914,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
